--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/10/seed3/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.38929999999999</v>
+        <v>-12.02739999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.623</v>
+        <v>-21.47699999999998</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -597,16 +597,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.6269</v>
+        <v>-21.59249999999999</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-12.5359</v>
+        <v>-12.6498</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.754100000000001</v>
+        <v>-8.540800000000004</v>
       </c>
     </row>
     <row r="13">
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.956599999999984</v>
+        <v>-9.009299999999984</v>
       </c>
     </row>
     <row r="14">
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.3119</v>
+        <v>-13.48969999999999</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.17939999999999</v>
+        <v>-22.1127</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.945299999999995</v>
+        <v>-7.898699999999995</v>
       </c>
     </row>
     <row r="22">
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.63690000000001</v>
+        <v>-12.68130000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.79490000000001</v>
+        <v>-12.89789999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.7595</v>
+        <v>-13.91639999999999</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -942,18 +942,18 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.7411</v>
+        <v>-7.382799999999996</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.1512</v>
+        <v>-20.10079999999998</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.3313</v>
+        <v>-13.17600000000001</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.987499999999999</v>
+        <v>-8.212699999999998</v>
       </c>
     </row>
     <row r="39">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.228799999999994</v>
+        <v>-8.055899999999996</v>
       </c>
     </row>
     <row r="42">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.949700000000003</v>
+        <v>-7.848500000000004</v>
       </c>
     </row>
     <row r="53">
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.32260000000001</v>
+        <v>-22.2159</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1345,7 +1345,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.51729999999999</v>
+        <v>-12.25549999999999</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1376,12 +1376,12 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.188599999999993</v>
+        <v>-7.347899999999995</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.4373</v>
+        <v>-21.44789999999999</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-10.97690000000001</v>
+        <v>-11.33550000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.19639999999998</v>
+        <v>-20.16749999999998</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.89139999999997</v>
+        <v>-20.22459999999999</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1611,7 +1611,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.02579999999999</v>
+        <v>-12.96219999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-13.19030000000001</v>
+        <v>-13.7773</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.350500000000002</v>
+        <v>-8.267499999999997</v>
       </c>
     </row>
     <row r="90">
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.3271</v>
+        <v>-10.2499</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1765,10 +1765,10 @@
         <v>7.55</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.91619999999999</v>
+        <v>-12.9498</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.7648</v>
+        <v>-7.484900000000006</v>
       </c>
     </row>
     <row r="96">
@@ -1807,7 +1807,7 @@
         <v>5.8</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.77430000000001</v>
+        <v>-12.53510000000001</v>
       </c>
       <c r="D98" t="n">
         <v>-8.529999999999999</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.92250000000001</v>
+        <v>-12.4516</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.93270000000001</v>
+        <v>-13.52580000000001</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1908,7 +1908,7 @@
         <v>-12</v>
       </c>
       <c r="D105" t="n">
-        <v>-8.257000000000001</v>
+        <v>-8.349900000000003</v>
       </c>
     </row>
   </sheetData>
